--- a/01项目需求/功能列表与计划.xlsx
+++ b/01项目需求/功能列表与计划.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="1280" yWindow="0" windowWidth="29320" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
   <si>
     <t>我要买车</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,6 +218,18 @@
   </si>
   <si>
     <t>获取验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：标注过的周期任务中需要注意的是后台api,ui设计切图都需要优先完成，避免影响app和web的开发时间,没有标注过的大家自行安排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更多</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -225,7 +237,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -267,6 +279,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -288,7 +307,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -329,6 +348,17 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -359,7 +389,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -388,6 +418,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -410,7 +449,118 @@
     <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF008000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF008000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF008000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF008000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF008000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
@@ -737,26 +887,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F51"/>
+  <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="B1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="44.1640625" customWidth="1"/>
-    <col min="3" max="5" width="38" customWidth="1"/>
-    <col min="6" max="6" width="43.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" customWidth="1"/>
-    <col min="9" max="9" width="24.83203125" customWidth="1"/>
-    <col min="10" max="10" width="19.83203125" customWidth="1"/>
-    <col min="11" max="11" width="22.83203125" customWidth="1"/>
-    <col min="12" max="12" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
+    <col min="4" max="4" width="30.5" customWidth="1"/>
+    <col min="5" max="5" width="27.5" customWidth="1"/>
+    <col min="6" max="6" width="38" customWidth="1"/>
+    <col min="7" max="7" width="43.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="24.33203125" customWidth="1"/>
+    <col min="10" max="10" width="24.83203125" customWidth="1"/>
+    <col min="11" max="11" width="19.83203125" customWidth="1"/>
+    <col min="12" max="12" width="22.83203125" customWidth="1"/>
+    <col min="13" max="13" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="52" customHeight="1">
+    <row r="1" spans="2:7" ht="68" customHeight="1">
+      <c r="B1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="2:7" ht="52" customHeight="1">
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
@@ -770,10 +934,13 @@
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="2:6" s="1" customFormat="1" ht="44" customHeight="1">
+    <row r="3" spans="2:7" s="1" customFormat="1" ht="44" customHeight="1">
       <c r="B3" s="4" t="s">
         <v>42</v>
       </c>
@@ -784,18 +951,20 @@
         <v>41</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="2:6" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="F3" s="4"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="2:7" s="1" customFormat="1" ht="38" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="2:6" ht="37" customHeight="1">
+      <c r="F4" s="4"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="2:7" ht="37" customHeight="1">
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>4</v>
@@ -804,9 +973,10 @@
         <v>41</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="2:6" ht="39" customHeight="1">
+      <c r="F5" s="4"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="2:7" ht="39" customHeight="1">
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
         <v>6</v>
@@ -815,9 +985,10 @@
         <v>41</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="2:6" ht="35" customHeight="1">
+      <c r="F6" s="4"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="2:7" ht="35" customHeight="1">
       <c r="B7" s="2"/>
       <c r="C7" s="6" t="s">
         <v>44</v>
@@ -826,9 +997,10 @@
         <v>41</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="2:6" ht="35" customHeight="1">
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="2:7" ht="35" customHeight="1">
       <c r="B8" s="2"/>
       <c r="C8" s="6" t="s">
         <v>45</v>
@@ -837,43 +1009,48 @@
         <v>41</v>
       </c>
       <c r="E8" s="6"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="2:6" ht="35" customHeight="1">
+      <c r="F8" s="4"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="2:7" ht="35" customHeight="1">
       <c r="B9" s="2"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="2:6" ht="35" customHeight="1">
+      <c r="F9" s="4"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="2:7" ht="35" customHeight="1">
       <c r="B10" s="2"/>
       <c r="C10" s="6" t="s">
         <v>46</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="2:6" ht="33" customHeight="1">
+      <c r="F10" s="4"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="2:7" ht="33" customHeight="1">
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="2:6" ht="32" customHeight="1">
+      <c r="F11" s="4"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="2:7" ht="32" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="2:6" ht="33" customHeight="1">
+      <c r="F12" s="4"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="2:7" ht="33" customHeight="1">
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
         <v>8</v>
@@ -882,27 +1059,30 @@
         <v>41</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="2:6" ht="35" customHeight="1">
+      <c r="F13" s="4"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="2:7" ht="35" customHeight="1">
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="2:6" ht="27" customHeight="1">
+      <c r="F14" s="4"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="2:7" ht="27" customHeight="1">
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="2:6" ht="27" customHeight="1">
+      <c r="F15" s="4"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="2:7" ht="27" customHeight="1">
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
         <v>11</v>
@@ -911,27 +1091,30 @@
         <v>41</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" ht="27" customHeight="1">
+      <c r="F16" s="4"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="2:7" ht="27" customHeight="1">
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="2:6" ht="28" customHeight="1">
+      <c r="F17" s="4"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="2:7" ht="28" customHeight="1">
       <c r="B18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="2:6" ht="25" customHeight="1">
+      <c r="F18" s="4"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="2:7" ht="25" customHeight="1">
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
         <v>13</v>
@@ -940,45 +1123,50 @@
         <v>41</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="2:6" ht="25" customHeight="1">
+      <c r="F19" s="4"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="2:7" ht="25" customHeight="1">
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="2:6" ht="22" customHeight="1">
+      <c r="F20" s="4"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="2:7" ht="22" customHeight="1">
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="2:6" ht="22" customHeight="1">
+      <c r="F21" s="4"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="2:7" ht="22" customHeight="1">
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="2:6" ht="27" customHeight="1">
+      <c r="F22" s="4"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="2:7" ht="27" customHeight="1">
       <c r="B23" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="2:6" ht="25" customHeight="1">
+      <c r="F23" s="4"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="2:7" ht="25" customHeight="1">
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
         <v>17</v>
@@ -987,9 +1175,10 @@
         <v>41</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="2:6" ht="23" customHeight="1">
+      <c r="F24" s="4"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="2:7" ht="23" customHeight="1">
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
         <v>18</v>
@@ -998,9 +1187,10 @@
         <v>41</v>
       </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="2:6" ht="24" customHeight="1">
+      <c r="F25" s="4"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="2:7" ht="24" customHeight="1">
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
         <v>19</v>
@@ -1009,9 +1199,10 @@
         <v>41</v>
       </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="2:6" ht="24" customHeight="1">
+      <c r="F26" s="4"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="2:7" ht="24" customHeight="1">
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
         <v>20</v>
@@ -1020,9 +1211,10 @@
         <v>41</v>
       </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="2:6" ht="24" customHeight="1">
+      <c r="F27" s="4"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="2:7" ht="24" customHeight="1">
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
         <v>21</v>
@@ -1031,93 +1223,104 @@
         <v>41</v>
       </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="2:6" ht="24" customHeight="1">
+      <c r="F28" s="4"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="2:7" ht="24" customHeight="1">
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="2:6" ht="24" customHeight="1">
+      <c r="F29" s="4"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="2:7" ht="24" customHeight="1">
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="2:6" ht="24" customHeight="1">
+      <c r="F30" s="4"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="2:7" ht="24" customHeight="1">
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="2:6" ht="24" customHeight="1">
+      <c r="F31" s="4"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="2:7" ht="24" customHeight="1">
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="2:6" ht="24" customHeight="1">
+      <c r="F32" s="4"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="2:7" ht="24" customHeight="1">
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="2:6" ht="24" customHeight="1">
+      <c r="F33" s="4"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="2:7" ht="24" customHeight="1">
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="2:6" ht="24" customHeight="1">
+      <c r="F34" s="4"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="2:7" ht="24" customHeight="1">
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="2:6" ht="24" customHeight="1">
+      <c r="F35" s="4"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="2:7" ht="24" customHeight="1">
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="2:6" ht="24" customHeight="1">
+      <c r="F36" s="4"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="2:7" ht="24" customHeight="1">
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="2:6" ht="32" customHeight="1">
+      <c r="F37" s="4"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="2:7" ht="32" customHeight="1">
       <c r="B38" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="2:6" ht="24" customHeight="1">
+      <c r="F38" s="4"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="2:7" ht="24" customHeight="1">
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
         <v>29</v>
@@ -1126,9 +1329,10 @@
         <v>41</v>
       </c>
       <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="2:6" ht="24" customHeight="1">
+      <c r="F39" s="4"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="2:7" ht="24" customHeight="1">
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
         <v>30</v>
@@ -1137,9 +1341,10 @@
         <v>41</v>
       </c>
       <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="2:6" ht="24" customHeight="1">
+      <c r="F40" s="4"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="2:7" ht="24" customHeight="1">
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
         <v>31</v>
@@ -1148,9 +1353,10 @@
         <v>41</v>
       </c>
       <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="2:6" ht="24" customHeight="1">
+      <c r="F41" s="4"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="2:7" ht="24" customHeight="1">
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
         <v>32</v>
@@ -1159,9 +1365,10 @@
         <v>41</v>
       </c>
       <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="2:6" ht="24" customHeight="1">
+      <c r="F42" s="4"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="2:7" ht="24" customHeight="1">
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
         <v>49</v>
@@ -1170,9 +1377,10 @@
         <v>41</v>
       </c>
       <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="2:6" ht="24" customHeight="1">
+      <c r="F43" s="4"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="2:7" ht="24" customHeight="1">
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
         <v>48</v>
@@ -1181,81 +1389,101 @@
         <v>41</v>
       </c>
       <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="2:6" ht="24" customHeight="1">
+      <c r="F44" s="4"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="2:7" ht="24" customHeight="1">
       <c r="B45" s="5" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="2:6" ht="24" customHeight="1">
+      <c r="F45" s="4"/>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="2:7" ht="24" customHeight="1">
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="2:6" ht="24" customHeight="1">
+      <c r="F46" s="4"/>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="2:7" ht="24" customHeight="1">
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="2:6" ht="24" customHeight="1">
+      <c r="F47" s="4"/>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="2:7" ht="24" customHeight="1">
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="2:6" ht="24" customHeight="1">
+      <c r="F48" s="4"/>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="2:7" ht="24" customHeight="1">
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="2:6" ht="24" customHeight="1">
+      <c r="F49" s="4"/>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="2:7" ht="24" customHeight="1">
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="2:6" ht="26" customHeight="1">
+      <c r="F50" s="4"/>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="2:7" ht="26" customHeight="1">
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
+  <conditionalFormatting sqref="F3:F51">
+    <cfRule type="containsText" dxfId="3" priority="2" stopIfTrue="1" operator="containsText" text="完成">
+      <formula>NOT(ISERROR(SEARCH("完成",F3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="1" stopIfTrue="1" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",F3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D51">
-      <formula1>"第一期"</formula1>
+      <formula1>"第一期,第二期"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F51">
+      <formula1>"完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/01项目需求/功能列表与计划.xlsx
+++ b/01项目需求/功能列表与计划.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
   <si>
     <t>主功能</t>
   </si>
@@ -34,6 +34,9 @@
     <t>状态</t>
   </si>
   <si>
+    <t>不明确的需求</t>
+  </si>
+  <si>
     <t>主界面</t>
   </si>
   <si>
@@ -49,6 +52,27 @@
     <t>完成</t>
   </si>
   <si>
+    <t>每日推荐</t>
+  </si>
+  <si>
+    <t>每日新闻</t>
+  </si>
+  <si>
+    <t>可配置的合作伙伴</t>
+  </si>
+  <si>
+    <t>首页菜单列表展示</t>
+  </si>
+  <si>
+    <t>未完成</t>
+  </si>
+  <si>
+    <t>菜单列表的管理</t>
+  </si>
+  <si>
+    <t>品牌，车型，价格，车龄列表及数量的展示</t>
+  </si>
+  <si>
     <t>我要买车</t>
   </si>
   <si>
@@ -64,19 +88,25 @@
     <t>贺剑锋</t>
   </si>
   <si>
-    <t>添加到购物车</t>
+    <t>添加到购物车（包含一个可配置的限定数量，不能无限制的添加）</t>
   </si>
   <si>
     <t>纳入第二期，和下单流程相关</t>
   </si>
   <si>
     <t xml:space="preserve">
-添加收藏与取消收藏</t>
+添加收藏与取消收藏（包含一个可配置的限定数量，不能无限制的添加）</t>
+  </si>
+  <si>
+    <t>从购物车移动到搜藏夹，或从收藏夹移动到购物车</t>
   </si>
   <si>
     <t>搜索功能</t>
   </si>
   <si>
+    <t>分页展示搜索功能</t>
+  </si>
+  <si>
     <t>筛选功能</t>
   </si>
   <si>
@@ -86,16 +116,25 @@
     <t>添加车辆信息</t>
   </si>
   <si>
-    <t>正在出售的车辆列表</t>
+    <t>WEB有问题，MOBILE是分为几步添加</t>
+  </si>
+  <si>
+    <t>正在出售的车辆列表（分页展示）</t>
   </si>
   <si>
     <t>纳入第一期，已经做了部分</t>
   </si>
   <si>
+    <t>未做</t>
+  </si>
+  <si>
     <t>删除正在出售车辆</t>
   </si>
   <si>
-    <t>车辆详细信息</t>
+    <t>未验证</t>
+  </si>
+  <si>
+    <t>车辆详细信息（产品展示页面)</t>
   </si>
   <si>
     <t>编辑正在出售的车辆信息</t>
@@ -113,42 +152,57 @@
     <t>结算(生成订单)</t>
   </si>
   <si>
+    <t>支付</t>
+  </si>
+  <si>
+    <t>如果是用银联支付，需要用企业去申请一个企业账号</t>
+  </si>
+  <si>
     <t>个人中心</t>
   </si>
   <si>
-    <t>我的资料展示</t>
+    <t>我的资料展示（包含根据选择的省份，动态加载对应的城市）</t>
   </si>
   <si>
     <t>何园</t>
   </si>
   <si>
+    <t>Mobile/Web都出错</t>
+  </si>
+  <si>
     <t>修改资料信息</t>
   </si>
   <si>
-    <t>修改密码</t>
+    <t>登录状态修改密码（和鲜辉确认后，决定没有意义再输入手机验证码）</t>
+  </si>
+  <si>
+    <t>Mobile OK, web出错</t>
+  </si>
+  <si>
+    <t>手机找回密码（包含发送手机验证码）</t>
+  </si>
+  <si>
+    <t>邮箱找回密码（包含发送验证码到邮箱）</t>
   </si>
   <si>
     <t>修改手机绑定</t>
   </si>
   <si>
-    <t>修改邮件绑定</t>
+    <t>修改邮件绑定（包含发送确认绑定链接到邮箱）</t>
   </si>
   <si>
     <t>身份认证</t>
   </si>
   <si>
-    <t>我的收藏界面</t>
-  </si>
-  <si>
-    <t>删除收藏</t>
-  </si>
-  <si>
-    <t>显示车辆详情</t>
+    <t>如何身份认证，没有看到相关的截图？</t>
   </si>
   <si>
     <t>买车记录</t>
   </si>
   <si>
+    <t>默认是按照未付款时间倒序排列？</t>
+  </si>
+  <si>
     <t>卖车记录</t>
   </si>
   <si>
@@ -164,16 +218,22 @@
     <t>经销商注册</t>
   </si>
   <si>
+    <t>经销商地址是需要在注册页面就要填写，那应该和其他的地址信息一致先要有省，市，区县然后才是详细地址</t>
+  </si>
+  <si>
     <t>注册条款</t>
   </si>
   <si>
+    <t>第二期</t>
+  </si>
+  <si>
     <t>静态页面管理，纯数据，纳入第二期</t>
   </si>
   <si>
     <t>获取验证码</t>
   </si>
   <si>
-    <t>找回密码</t>
+    <t>静态页面</t>
   </si>
   <si>
     <t>购车指南</t>
@@ -199,10 +259,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -219,16 +279,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="12"/>
-      <color indexed="20"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="12"/>
-      <color indexed="8"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -248,30 +308,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -286,7 +328,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -309,32 +351,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -358,60 +374,63 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="7" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="7" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="7" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -422,8 +441,8 @@
     <cellStyle name="Percent" xfId="4" builtinId="5"/>
     <cellStyle name="Currency[0]" xfId="5" builtinId="7"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="普通" xfId="7"/>
-    <cellStyle name="访问过的超链接" xfId="8"/>
+    <cellStyle name="访问过的超链接" xfId="7"/>
+    <cellStyle name="普通" xfId="8"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -764,643 +783,772 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B2:G51"/>
+  <dimension ref="B2:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="44.1666666666667" customWidth="1"/>
-    <col min="3" max="5" width="38" customWidth="1"/>
+    <col min="3" max="3" width="69.375" customWidth="1"/>
+    <col min="4" max="4" width="38" style="6" customWidth="1"/>
+    <col min="5" max="5" width="38" customWidth="1"/>
     <col min="6" max="6" width="43.3333333333333" customWidth="1"/>
     <col min="7" max="7" width="18.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="24.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="59.1083333333333" customWidth="1"/>
     <col min="9" max="9" width="24.8333333333333" customWidth="1"/>
     <col min="10" max="10" width="19.8333333333333" customWidth="1"/>
     <col min="11" max="11" width="22.8333333333333" customWidth="1"/>
     <col min="12" max="12" width="24.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="52" customHeight="1" spans="2:7">
-      <c r="B2" s="6" t="s">
+    <row r="2" ht="52" customHeight="1" spans="2:8">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="44" customHeight="1" spans="2:7">
-      <c r="B3" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8" t="s">
+    </row>
+    <row r="3" s="1" customFormat="1" ht="44" customHeight="1" spans="2:8">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8" t="s">
+      <c r="D3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="38" customHeight="1" spans="2:7">
-      <c r="B4" s="9" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="37" customHeight="1" spans="2:7">
-      <c r="B5" s="10"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="44" customHeight="1" spans="2:8">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="44" customHeight="1" spans="2:8">
+      <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="10"/>
-    </row>
-    <row r="6" ht="39" customHeight="1" spans="2:7">
-      <c r="B6" s="8"/>
-      <c r="C6" s="11" t="s">
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="44" customHeight="1" spans="2:8">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="44" customHeight="1" spans="2:8">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="35" customHeight="1" spans="2:7">
-      <c r="B7" s="10"/>
-      <c r="C7" s="12" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="10" t="s">
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="44" customHeight="1" spans="2:8">
+      <c r="B8" s="9"/>
+      <c r="C8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" ht="35" customHeight="1" spans="2:7">
-      <c r="B8" s="8"/>
-      <c r="C8" s="11" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="44" customHeight="1" spans="2:8">
+      <c r="B9" s="9"/>
+      <c r="C9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" ht="35" customHeight="1" spans="2:7">
-      <c r="B9" s="8"/>
-      <c r="C9" s="11"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" ht="35" customHeight="1" spans="2:7">
-      <c r="B10" s="8"/>
-      <c r="C10" s="11" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="38" customHeight="1" spans="2:8">
+      <c r="B10" s="12" t="s">
         <v>19</v>
       </c>
+      <c r="C10" s="10"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" ht="33" customHeight="1" spans="2:7">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8" t="s">
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="37" customHeight="1" spans="2:8">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" ht="32" customHeight="1" spans="2:7">
-      <c r="B12" s="9" t="s">
+      <c r="D11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" ht="33" customHeight="1" spans="2:7">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8" t="s">
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" ht="39" customHeight="1" spans="2:8">
+      <c r="B12" s="10"/>
+      <c r="C12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" s="3" customFormat="1" ht="35" customHeight="1" spans="2:7">
-      <c r="B14" s="13"/>
+      <c r="D12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="35" customHeight="1" spans="2:8">
+      <c r="B13" s="9"/>
+      <c r="C13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" ht="35" customHeight="1" spans="2:8">
+      <c r="B14" s="10"/>
       <c r="C14" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" s="4" customFormat="1" ht="27" customHeight="1" spans="2:7">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" ht="27" customHeight="1" spans="2:7">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" s="4" customFormat="1" ht="27" customHeight="1" spans="2:7">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" ht="35" customHeight="1" spans="2:8">
+      <c r="B15" s="10"/>
+      <c r="C15" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" ht="28" customHeight="1" spans="2:7">
-      <c r="B18" s="9" t="s">
+      <c r="D15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" ht="35" customHeight="1" spans="2:8">
+      <c r="B16" s="10"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" ht="35" customHeight="1" spans="2:8">
+      <c r="B17" s="10"/>
+      <c r="C17" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="25" customHeight="1" spans="2:7">
+      <c r="D17" s="11"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" ht="35" customHeight="1" spans="2:8">
+      <c r="B18" s="10"/>
+      <c r="C18" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" ht="33" customHeight="1" spans="2:8">
       <c r="B19" s="10"/>
       <c r="C19" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>8</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D19" s="11"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="F19" s="10"/>
       <c r="G19" s="10"/>
-    </row>
-    <row r="20" ht="25" customHeight="1" spans="2:7">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" ht="22" customHeight="1" spans="2:7">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" ht="22" customHeight="1" spans="2:7">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8" t="s">
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" ht="32" customHeight="1" spans="2:8">
+      <c r="B20" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" ht="27" customHeight="1" spans="2:7">
-      <c r="B23" s="9" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" ht="33" customHeight="1" spans="2:8">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" ht="25" customHeight="1" spans="2:7">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8" t="s">
+      <c r="D21" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="8" t="s">
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" s="3" customFormat="1" ht="35" customHeight="1" spans="2:8">
+      <c r="B22" s="15"/>
+      <c r="C22" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" ht="23" customHeight="1" spans="2:7">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8" t="s">
+      <c r="D22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" ht="24" customHeight="1" spans="2:7">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8" t="s">
+      <c r="G22" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" ht="24" customHeight="1" spans="2:7">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8" t="s">
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" s="3" customFormat="1" ht="27" customHeight="1" spans="2:8">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" ht="24" customHeight="1" spans="2:7">
-      <c r="B28" s="8"/>
-      <c r="C28" s="8" t="s">
+      <c r="D23" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-    </row>
-    <row r="29" ht="24" customHeight="1" spans="2:7">
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" ht="24" customHeight="1" spans="2:7">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8" t="s">
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" s="4" customFormat="1" ht="27" customHeight="1" spans="2:8">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" ht="24" customHeight="1" spans="2:7">
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" ht="24" customHeight="1" spans="2:7">
-      <c r="B32" s="8"/>
-      <c r="C32" s="8" t="s">
+      <c r="D24" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" s="3" customFormat="1" ht="27" customHeight="1" spans="2:8">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-    </row>
-    <row r="33" ht="24" customHeight="1" spans="2:7">
-      <c r="B33" s="8"/>
-      <c r="C33" s="8" t="s">
+      <c r="D25" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" ht="28" customHeight="1" spans="2:8">
+      <c r="B26" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-    </row>
-    <row r="34" ht="24" customHeight="1" spans="2:7">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8" t="s">
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="25" customHeight="1" spans="2:8">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-    </row>
-    <row r="35" ht="24" customHeight="1" spans="2:7">
-      <c r="B35" s="15"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-    </row>
-    <row r="36" ht="24" customHeight="1" spans="2:7">
-      <c r="B36" s="8"/>
-      <c r="C36" s="8" t="s">
+      <c r="D27" s="11"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" ht="25" customHeight="1" spans="2:8">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-    </row>
-    <row r="37" ht="24" customHeight="1" spans="2:7">
-      <c r="B37" s="8"/>
-      <c r="C37" s="8" t="s">
+      <c r="D28" s="11"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" ht="22" customHeight="1" spans="2:8">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" ht="22" customHeight="1" spans="2:8">
+      <c r="B30" s="10"/>
+      <c r="C30" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-    </row>
-    <row r="38" ht="32" customHeight="1" spans="2:7">
-      <c r="B38" s="9" t="s">
+      <c r="D30" s="11"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" ht="22" customHeight="1" spans="2:8">
+      <c r="B31" s="10"/>
+      <c r="C31" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-    </row>
-    <row r="39" ht="24" customHeight="1" spans="2:7">
-      <c r="B39" s="8"/>
-      <c r="C39" s="8" t="s">
+      <c r="D31" s="11"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8" t="s">
+    </row>
+    <row r="32" ht="27" customHeight="1" spans="2:8">
+      <c r="B32" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" ht="25" customHeight="1" spans="2:8">
+      <c r="B33" s="10"/>
+      <c r="C33" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" ht="23" customHeight="1" spans="2:8">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" ht="24" customHeight="1" spans="2:8">
+      <c r="B35" s="10"/>
+      <c r="C35" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" ht="24" customHeight="1" spans="2:8">
+      <c r="B36" s="10"/>
+      <c r="C36" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="10"/>
+    </row>
+    <row r="37" ht="24" customHeight="1" spans="2:8">
+      <c r="B37" s="10"/>
+      <c r="C37" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" ht="24" customHeight="1" spans="2:8">
+      <c r="B38" s="10"/>
+      <c r="C38" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="10"/>
+    </row>
+    <row r="39" ht="24" customHeight="1" spans="2:8">
+      <c r="B39" s="10"/>
+      <c r="C39" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" ht="24" customHeight="1" spans="2:8">
+      <c r="B40" s="10"/>
+      <c r="C40" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" ht="24" customHeight="1" spans="2:8">
+      <c r="B41" s="10"/>
+      <c r="C41" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" ht="24" customHeight="1" spans="2:8">
+      <c r="B42" s="10"/>
+      <c r="C42" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+    </row>
+    <row r="43" ht="32" customHeight="1" spans="2:8">
+      <c r="B43" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+    </row>
+    <row r="44" ht="24" customHeight="1" spans="2:8">
+      <c r="B44" s="10"/>
+      <c r="C44" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" ht="24" customHeight="1" spans="2:7">
-      <c r="B40" s="8"/>
-      <c r="C40" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8" t="s">
+      <c r="F44" s="10"/>
+      <c r="G44" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="10"/>
+    </row>
+    <row r="45" ht="24" customHeight="1" spans="2:8">
+      <c r="B45" s="10"/>
+      <c r="C45" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" ht="24" customHeight="1" spans="2:7">
-      <c r="B41" s="8"/>
-      <c r="C41" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8" t="s">
+      <c r="F45" s="10"/>
+      <c r="G45" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="10"/>
+    </row>
+    <row r="46" ht="24" customHeight="1" spans="2:8">
+      <c r="B46" s="10"/>
+      <c r="C46" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" s="5" customFormat="1" ht="24" customHeight="1" spans="2:7">
-      <c r="B42" s="17"/>
-      <c r="C42" s="18" t="s">
+      <c r="F46" s="10"/>
+      <c r="G46" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" s="5" customFormat="1" ht="24" customHeight="1" spans="2:8">
+      <c r="B47" s="17"/>
+      <c r="C47" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G47" s="17"/>
+      <c r="H47" s="10"/>
+    </row>
+    <row r="48" ht="24" customHeight="1" spans="2:8">
+      <c r="B48" s="10"/>
+      <c r="C48" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="17"/>
-      <c r="F42" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G42" s="17"/>
-    </row>
-    <row r="43" ht="24" customHeight="1" spans="2:7">
-      <c r="B43" s="8"/>
-      <c r="C43" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-    </row>
-    <row r="44" ht="24" customHeight="1" spans="2:7">
-      <c r="B44" s="8"/>
-      <c r="C44" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-    </row>
-    <row r="45" ht="24" customHeight="1" spans="2:7">
-      <c r="B45" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-    </row>
-    <row r="46" ht="24" customHeight="1" spans="2:7">
-      <c r="B46" s="8"/>
-      <c r="C46" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-    </row>
-    <row r="47" ht="24" customHeight="1" spans="2:7">
-      <c r="B47" s="8"/>
-      <c r="C47" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-    </row>
-    <row r="48" ht="24" customHeight="1" spans="2:7">
-      <c r="B48" s="8"/>
-      <c r="C48" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-    </row>
-    <row r="49" ht="24" customHeight="1" spans="2:7">
-      <c r="B49" s="8"/>
-      <c r="C49" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-    </row>
-    <row r="50" ht="24" customHeight="1" spans="2:7">
-      <c r="B50" s="8"/>
-      <c r="C50" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-    </row>
-    <row r="51" ht="26" customHeight="1" spans="2:7">
-      <c r="B51" s="8"/>
-      <c r="C51" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="10"/>
+    </row>
+    <row r="49" ht="24" customHeight="1" spans="2:8">
+      <c r="B49" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+    </row>
+    <row r="50" ht="24" customHeight="1" spans="2:8">
+      <c r="B50" s="10"/>
+      <c r="C50" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="11"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+    </row>
+    <row r="51" ht="24" customHeight="1" spans="2:8">
+      <c r="B51" s="10"/>
+      <c r="C51" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" s="11"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+    </row>
+    <row r="52" ht="24" customHeight="1" spans="2:8">
+      <c r="B52" s="10"/>
+      <c r="C52" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="11"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+    </row>
+    <row r="53" ht="24" customHeight="1" spans="2:8">
+      <c r="B53" s="10"/>
+      <c r="C53" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="11"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+    </row>
+    <row r="54" ht="24" customHeight="1" spans="2:8">
+      <c r="B54" s="10"/>
+      <c r="C54" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="11"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+    </row>
+    <row r="55" ht="26" customHeight="1" spans="2:8">
+      <c r="B55" s="10"/>
+      <c r="C55" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" s="11"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B35:C35"/>
-  </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D51">
-      <formula1>"第一期"</formula1>
-    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048575"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/01项目需求/功能列表与计划.xlsx
+++ b/01项目需求/功能列表与计划.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>主功能</t>
   </si>
@@ -34,6 +34,9 @@
     <t>状态</t>
   </si>
   <si>
+    <t>不明确的需求</t>
+  </si>
+  <si>
     <t>主界面</t>
   </si>
   <si>
@@ -49,6 +52,24 @@
     <t>完成</t>
   </si>
   <si>
+    <t>每日推荐</t>
+  </si>
+  <si>
+    <t>每日新闻</t>
+  </si>
+  <si>
+    <t>可配置的合作伙伴</t>
+  </si>
+  <si>
+    <t>首页菜单列表展示</t>
+  </si>
+  <si>
+    <t>菜单列表的管理</t>
+  </si>
+  <si>
+    <t>品牌，车型，价格，车龄列表及数量的展示</t>
+  </si>
+  <si>
     <t>我要买车</t>
   </si>
   <si>
@@ -64,19 +85,25 @@
     <t>贺剑锋</t>
   </si>
   <si>
-    <t>添加到购物车</t>
+    <t>添加到购物车（包含一个可配置的限定数量，不能无限制的添加）</t>
   </si>
   <si>
     <t>纳入第二期，和下单流程相关</t>
   </si>
   <si>
     <t xml:space="preserve">
-添加收藏与取消收藏</t>
+添加收藏与取消收藏（包含一个可配置的限定数量，不能无限制的添加）</t>
+  </si>
+  <si>
+    <t>从购物车移动到搜藏夹，或从收藏夹移动到购物车</t>
   </si>
   <si>
     <t>搜索功能</t>
   </si>
   <si>
+    <t>分页展示搜索功能</t>
+  </si>
+  <si>
     <t>筛选功能</t>
   </si>
   <si>
@@ -86,7 +113,7 @@
     <t>添加车辆信息</t>
   </si>
   <si>
-    <t>正在出售的车辆列表</t>
+    <t>正在出售的车辆列表（分页展示）</t>
   </si>
   <si>
     <t>纳入第一期，已经做了部分</t>
@@ -95,7 +122,7 @@
     <t>删除正在出售车辆</t>
   </si>
   <si>
-    <t>车辆详细信息</t>
+    <t>车辆详细信息（产品展示页面)</t>
   </si>
   <si>
     <t>编辑正在出售的车辆信息</t>
@@ -113,42 +140,54 @@
     <t>结算(生成订单)</t>
   </si>
   <si>
+    <t>支付</t>
+  </si>
+  <si>
+    <t>如果是用银联支付，需要用企业去申请一个企业账号</t>
+  </si>
+  <si>
     <t>个人中心</t>
   </si>
   <si>
-    <t>我的资料展示</t>
+    <t>我的资料展示（包含根据选择的省份，动态加载对应的城市）</t>
   </si>
   <si>
     <t>何园</t>
   </si>
   <si>
+    <t>Mobile/Web都出错</t>
+  </si>
+  <si>
     <t>修改资料信息</t>
   </si>
   <si>
-    <t>修改密码</t>
+    <t>登录状态修改密码（和鲜辉确认后，决定没有意义再输入手机验证码）</t>
+  </si>
+  <si>
+    <t>手机找回密码（包含发送手机验证码）</t>
+  </si>
+  <si>
+    <t>邮箱找回密码（包含发送验证码到邮箱）</t>
   </si>
   <si>
     <t>修改手机绑定</t>
   </si>
   <si>
-    <t>修改邮件绑定</t>
+    <t>修改邮件绑定（包含发送确认绑定链接到邮箱）</t>
   </si>
   <si>
     <t>身份认证</t>
   </si>
   <si>
-    <t>我的收藏界面</t>
-  </si>
-  <si>
-    <t>删除收藏</t>
-  </si>
-  <si>
-    <t>显示车辆详情</t>
+    <t>如何身份认证，没有看到相关的截图？</t>
   </si>
   <si>
     <t>买车记录</t>
   </si>
   <si>
+    <t>默认是按照未付款时间倒序排列？</t>
+  </si>
+  <si>
     <t>卖车记录</t>
   </si>
   <si>
@@ -164,7 +203,13 @@
     <t>经销商注册</t>
   </si>
   <si>
+    <t>经销商地址是需要在注册页面就要填写，那应该和其他的地址信息一致先要有省，市，区县然后才是详细地址</t>
+  </si>
+  <si>
     <t>注册条款</t>
+  </si>
+  <si>
+    <t>第二期</t>
   </si>
   <si>
     <t>静态页面管理，纯数据，纳入第二期</t>
@@ -199,10 +244,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -219,16 +264,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="12"/>
-      <color indexed="20"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="12"/>
-      <color indexed="8"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -248,30 +293,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -286,7 +313,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -309,32 +336,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -358,60 +359,63 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="7" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="7" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="7" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -422,8 +426,8 @@
     <cellStyle name="Percent" xfId="4" builtinId="5"/>
     <cellStyle name="Currency[0]" xfId="5" builtinId="7"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="普通" xfId="7"/>
-    <cellStyle name="访问过的超链接" xfId="8"/>
+    <cellStyle name="访问过的超链接" xfId="7"/>
+    <cellStyle name="普通" xfId="8"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -764,643 +768,765 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B2:G51"/>
+  <dimension ref="B2:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="44.1666666666667" customWidth="1"/>
-    <col min="3" max="5" width="38" customWidth="1"/>
+    <col min="3" max="3" width="69.375" customWidth="1"/>
+    <col min="4" max="4" width="38" style="6" customWidth="1"/>
+    <col min="5" max="5" width="38" customWidth="1"/>
     <col min="6" max="6" width="43.3333333333333" customWidth="1"/>
     <col min="7" max="7" width="18.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="24.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="59.1083333333333" customWidth="1"/>
     <col min="9" max="9" width="24.8333333333333" customWidth="1"/>
     <col min="10" max="10" width="19.8333333333333" customWidth="1"/>
     <col min="11" max="11" width="22.8333333333333" customWidth="1"/>
     <col min="12" max="12" width="24.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="52" customHeight="1" spans="2:7">
-      <c r="B2" s="6" t="s">
+    <row r="2" ht="52" customHeight="1" spans="2:8">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="44" customHeight="1" spans="2:7">
-      <c r="B3" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8" t="s">
+    </row>
+    <row r="3" s="1" customFormat="1" ht="44" customHeight="1" spans="2:8">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8" t="s">
+      <c r="D3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="38" customHeight="1" spans="2:7">
-      <c r="B4" s="9" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="37" customHeight="1" spans="2:7">
-      <c r="B5" s="10"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="44" customHeight="1" spans="2:8">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="44" customHeight="1" spans="2:8">
+      <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="10"/>
-    </row>
-    <row r="6" ht="39" customHeight="1" spans="2:7">
-      <c r="B6" s="8"/>
-      <c r="C6" s="11" t="s">
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="44" customHeight="1" spans="2:8">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="44" customHeight="1" spans="2:8">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="35" customHeight="1" spans="2:7">
-      <c r="B7" s="10"/>
-      <c r="C7" s="12" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="44" customHeight="1" spans="2:8">
+      <c r="B8" s="9"/>
+      <c r="C8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="10" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="44" customHeight="1" spans="2:8">
+      <c r="B9" s="9"/>
+      <c r="C9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" ht="35" customHeight="1" spans="2:7">
-      <c r="B8" s="8"/>
-      <c r="C8" s="11" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="38" customHeight="1" spans="2:8">
+      <c r="B10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" ht="35" customHeight="1" spans="2:7">
-      <c r="B9" s="8"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" ht="35" customHeight="1" spans="2:7">
-      <c r="B10" s="8"/>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="37" customHeight="1" spans="2:8">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" ht="33" customHeight="1" spans="2:7">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" ht="32" customHeight="1" spans="2:7">
-      <c r="B12" s="9" t="s">
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" ht="39" customHeight="1" spans="2:8">
+      <c r="B12" s="10"/>
+      <c r="C12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" ht="33" customHeight="1" spans="2:7">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8" t="s">
+      <c r="D12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" s="3" customFormat="1" ht="35" customHeight="1" spans="2:7">
-      <c r="B14" s="13"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="35" customHeight="1" spans="2:8">
+      <c r="B13" s="9"/>
+      <c r="C13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" ht="35" customHeight="1" spans="2:8">
+      <c r="B14" s="10"/>
       <c r="C14" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" s="4" customFormat="1" ht="27" customHeight="1" spans="2:7">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" ht="27" customHeight="1" spans="2:7">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" ht="35" customHeight="1" spans="2:8">
+      <c r="B15" s="10"/>
+      <c r="C15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" s="4" customFormat="1" ht="27" customHeight="1" spans="2:7">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14" t="s">
+      <c r="D15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" ht="35" customHeight="1" spans="2:8">
+      <c r="B16" s="10"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" ht="35" customHeight="1" spans="2:8">
+      <c r="B17" s="10"/>
+      <c r="C17" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" ht="28" customHeight="1" spans="2:7">
-      <c r="B18" s="9" t="s">
+      <c r="D17" s="11"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" ht="35" customHeight="1" spans="2:8">
+      <c r="B18" s="10"/>
+      <c r="C18" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="25" customHeight="1" spans="2:7">
+      <c r="D18" s="11"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" ht="33" customHeight="1" spans="2:8">
       <c r="B19" s="10"/>
       <c r="C19" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>8</v>
-      </c>
+      <c r="D19" s="11"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="F19" s="10"/>
       <c r="G19" s="10"/>
-    </row>
-    <row r="20" ht="25" customHeight="1" spans="2:7">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8" t="s">
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" ht="32" customHeight="1" spans="2:8">
+      <c r="B20" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" ht="22" customHeight="1" spans="2:7">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" ht="22" customHeight="1" spans="2:7">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" ht="33" customHeight="1" spans="2:8">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" ht="27" customHeight="1" spans="2:7">
-      <c r="B23" s="9" t="s">
+      <c r="D21" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" s="3" customFormat="1" ht="35" customHeight="1" spans="2:8">
+      <c r="B22" s="15"/>
+      <c r="C22" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" ht="25" customHeight="1" spans="2:7">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8" t="s">
+      <c r="D22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="8" t="s">
+      <c r="G22" s="15"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" s="3" customFormat="1" ht="27" customHeight="1" spans="2:8">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" ht="23" customHeight="1" spans="2:7">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8" t="s">
+      <c r="D23" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" s="4" customFormat="1" ht="27" customHeight="1" spans="2:8">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" ht="24" customHeight="1" spans="2:7">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8" t="s">
+      <c r="D24" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" s="3" customFormat="1" ht="27" customHeight="1" spans="2:8">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" ht="24" customHeight="1" spans="2:7">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8" t="s">
+      <c r="D25" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" ht="28" customHeight="1" spans="2:8">
+      <c r="B26" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" ht="24" customHeight="1" spans="2:7">
-      <c r="B28" s="8"/>
-      <c r="C28" s="8" t="s">
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="25" customHeight="1" spans="2:8">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-    </row>
-    <row r="29" ht="24" customHeight="1" spans="2:7">
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" ht="24" customHeight="1" spans="2:7">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8" t="s">
+      <c r="D27" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" ht="25" customHeight="1" spans="2:8">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" ht="24" customHeight="1" spans="2:7">
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" ht="24" customHeight="1" spans="2:7">
-      <c r="B32" s="8"/>
-      <c r="C32" s="8" t="s">
+      <c r="D28" s="11"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" ht="22" customHeight="1" spans="2:8">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" ht="22" customHeight="1" spans="2:8">
+      <c r="B30" s="10"/>
+      <c r="C30" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-    </row>
-    <row r="33" ht="24" customHeight="1" spans="2:7">
-      <c r="B33" s="8"/>
-      <c r="C33" s="8" t="s">
+      <c r="D30" s="11"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" ht="22" customHeight="1" spans="2:8">
+      <c r="B31" s="10"/>
+      <c r="C31" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-    </row>
-    <row r="34" ht="24" customHeight="1" spans="2:7">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8" t="s">
+      <c r="D31" s="11"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-    </row>
-    <row r="35" ht="24" customHeight="1" spans="2:7">
-      <c r="B35" s="15"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-    </row>
-    <row r="36" ht="24" customHeight="1" spans="2:7">
-      <c r="B36" s="8"/>
-      <c r="C36" s="8" t="s">
+    </row>
+    <row r="32" ht="27" customHeight="1" spans="2:8">
+      <c r="B32" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-    </row>
-    <row r="37" ht="24" customHeight="1" spans="2:7">
-      <c r="B37" s="8"/>
-      <c r="C37" s="8" t="s">
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" ht="25" customHeight="1" spans="2:8">
+      <c r="B33" s="10"/>
+      <c r="C33" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-    </row>
-    <row r="38" ht="32" customHeight="1" spans="2:7">
-      <c r="B38" s="9" t="s">
+      <c r="D33" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-    </row>
-    <row r="39" ht="24" customHeight="1" spans="2:7">
-      <c r="B39" s="8"/>
-      <c r="C39" s="8" t="s">
+      <c r="F33" s="10"/>
+      <c r="G33" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8" t="s">
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" ht="23" customHeight="1" spans="2:8">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" ht="24" customHeight="1" spans="2:8">
+      <c r="B35" s="10"/>
+      <c r="C35" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" ht="24" customHeight="1" spans="2:8">
+      <c r="B36" s="10"/>
+      <c r="C36" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+    </row>
+    <row r="37" ht="24" customHeight="1" spans="2:8">
+      <c r="B37" s="10"/>
+      <c r="C37" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" ht="24" customHeight="1" spans="2:8">
+      <c r="B38" s="10"/>
+      <c r="C38" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+    </row>
+    <row r="39" ht="24" customHeight="1" spans="2:8">
+      <c r="B39" s="10"/>
+      <c r="C39" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" ht="24" customHeight="1" spans="2:8">
+      <c r="B40" s="10"/>
+      <c r="C40" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" ht="24" customHeight="1" spans="2:8">
+      <c r="B41" s="10"/>
+      <c r="C41" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" ht="24" customHeight="1" spans="2:8">
+      <c r="B42" s="10"/>
+      <c r="C42" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+    </row>
+    <row r="43" ht="32" customHeight="1" spans="2:8">
+      <c r="B43" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+    </row>
+    <row r="44" ht="24" customHeight="1" spans="2:8">
+      <c r="B44" s="10"/>
+      <c r="C44" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" ht="24" customHeight="1" spans="2:7">
-      <c r="B40" s="8"/>
-      <c r="C40" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8" t="s">
+      <c r="F44" s="10"/>
+      <c r="G44" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="10"/>
+    </row>
+    <row r="45" ht="24" customHeight="1" spans="2:8">
+      <c r="B45" s="10"/>
+      <c r="C45" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" ht="24" customHeight="1" spans="2:7">
-      <c r="B41" s="8"/>
-      <c r="C41" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8" t="s">
+      <c r="F45" s="10"/>
+      <c r="G45" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="10"/>
+    </row>
+    <row r="46" ht="24" customHeight="1" spans="2:8">
+      <c r="B46" s="10"/>
+      <c r="C46" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" s="5" customFormat="1" ht="24" customHeight="1" spans="2:7">
-      <c r="B42" s="17"/>
-      <c r="C42" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="17"/>
-      <c r="F42" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G42" s="17"/>
-    </row>
-    <row r="43" ht="24" customHeight="1" spans="2:7">
-      <c r="B43" s="8"/>
-      <c r="C43" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-    </row>
-    <row r="44" ht="24" customHeight="1" spans="2:7">
-      <c r="B44" s="8"/>
-      <c r="C44" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-    </row>
-    <row r="45" ht="24" customHeight="1" spans="2:7">
-      <c r="B45" s="9" t="s">
+      <c r="F46" s="10"/>
+      <c r="G46" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" s="5" customFormat="1" ht="24" customHeight="1" spans="2:8">
+      <c r="B47" s="17"/>
+      <c r="C47" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G47" s="17"/>
+      <c r="H47" s="10"/>
+    </row>
+    <row r="48" ht="24" customHeight="1" spans="2:8">
+      <c r="B48" s="10"/>
+      <c r="C48" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-    </row>
-    <row r="46" ht="24" customHeight="1" spans="2:7">
-      <c r="B46" s="8"/>
-      <c r="C46" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-    </row>
-    <row r="47" ht="24" customHeight="1" spans="2:7">
-      <c r="B47" s="8"/>
-      <c r="C47" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-    </row>
-    <row r="48" ht="24" customHeight="1" spans="2:7">
-      <c r="B48" s="8"/>
-      <c r="C48" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-    </row>
-    <row r="49" ht="24" customHeight="1" spans="2:7">
-      <c r="B49" s="8"/>
-      <c r="C49" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-    </row>
-    <row r="50" ht="24" customHeight="1" spans="2:7">
-      <c r="B50" s="8"/>
-      <c r="C50" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-    </row>
-    <row r="51" ht="26" customHeight="1" spans="2:7">
-      <c r="B51" s="8"/>
-      <c r="C51" s="8" t="s">
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+    </row>
+    <row r="49" ht="24" customHeight="1" spans="2:8">
+      <c r="B49" s="10"/>
+      <c r="C49" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+    </row>
+    <row r="50" ht="24" customHeight="1" spans="2:8">
+      <c r="B50" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+    </row>
+    <row r="51" ht="24" customHeight="1" spans="2:8">
+      <c r="B51" s="10"/>
+      <c r="C51" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="11"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+    </row>
+    <row r="52" ht="24" customHeight="1" spans="2:8">
+      <c r="B52" s="10"/>
+      <c r="C52" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="11"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+    </row>
+    <row r="53" ht="24" customHeight="1" spans="2:8">
+      <c r="B53" s="10"/>
+      <c r="C53" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="11"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+    </row>
+    <row r="54" ht="24" customHeight="1" spans="2:8">
+      <c r="B54" s="10"/>
+      <c r="C54" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D54" s="11"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+    </row>
+    <row r="55" ht="24" customHeight="1" spans="2:8">
+      <c r="B55" s="10"/>
+      <c r="C55" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" s="11"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+    </row>
+    <row r="56" ht="26" customHeight="1" spans="2:8">
+      <c r="B56" s="10"/>
+      <c r="C56" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" s="11"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B35:C35"/>
-  </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D51">
-      <formula1>"第一期"</formula1>
-    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D:D"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
